--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Spring.030220.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Spring.030220.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1739,12 +1739,12 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2369,12 +2369,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2579,12 +2579,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3041,12 +3041,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3167,12 +3167,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3377,12 +3377,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3419,12 +3419,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3671,12 @@
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4561,12 +4561,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4687,12 +4687,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4985,12 +4985,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5027,12 +5027,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5069,12 +5069,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5153,12 +5153,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5447,12 +5447,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5657,12 +5657,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5993,12 +5993,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6203,12 +6203,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6371,12 +6371,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6539,12 +6539,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6833,12 +6833,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6875,12 +6875,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6959,12 +6959,12 @@
       <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7043,12 +7043,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7211,12 +7211,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7253,12 +7253,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7379,12 +7379,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8009,12 +8009,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8639,12 +8639,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8681,12 +8681,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8807,12 +8807,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9059,12 +9059,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9437,12 +9437,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9819,12 +9819,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9945,12 +9945,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10029,12 +10029,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10197,12 +10197,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10575,12 +10575,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10617,12 +10617,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10659,12 +10659,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11129,12 +11129,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11549,12 +11549,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11591,12 +11591,12 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11801,12 +11801,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12389,12 +12389,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13363,12 +13363,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13741,12 +13741,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13783,12 +13783,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13825,12 +13825,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13867,12 +13867,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13909,12 +13909,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13951,12 +13951,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14077,12 +14077,12 @@
       <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14119,12 +14119,12 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14329,12 +14329,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14455,12 +14455,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14753,12 +14753,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15341,12 +15341,12 @@
       <c r="H354" t="inlineStr"/>
       <c r="I354" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16017,12 +16017,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16059,12 +16059,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16101,12 +16101,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16227,12 +16227,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16437,12 +16437,12 @@
       </c>
       <c r="I380" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16941,12 +16941,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17067,12 +17067,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17487,12 +17487,12 @@
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17991,12 +17991,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18033,12 +18033,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18075,12 +18075,12 @@
       <c r="H419" t="inlineStr"/>
       <c r="I419" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18159,12 +18159,12 @@
       <c r="H421" t="inlineStr"/>
       <c r="I421" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18663,12 +18663,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18789,12 +18789,12 @@
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18831,12 +18831,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18999,12 +18999,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19125,12 +19125,12 @@
       </c>
       <c r="I444" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19419,12 +19419,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19923,12 +19923,12 @@
       <c r="H463" t="inlineStr"/>
       <c r="I463" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J463" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20091,12 +20091,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20511,12 +20511,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21099,12 +21099,12 @@
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21565,12 +21565,12 @@
       <c r="H502" t="inlineStr"/>
       <c r="I502" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21775,12 +21775,12 @@
       <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22279,12 +22279,12 @@
       <c r="H519" t="inlineStr"/>
       <c r="I519" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22787,12 +22787,12 @@
       <c r="H531" t="inlineStr"/>
       <c r="I531" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23921,12 +23921,12 @@
       <c r="H558" t="inlineStr"/>
       <c r="I558" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J558" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24131,12 +24131,12 @@
       <c r="H563" t="inlineStr"/>
       <c r="I563" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24509,12 +24509,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24719,12 +24719,12 @@
       <c r="H577" t="inlineStr"/>
       <c r="I577" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J577" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
